--- a/ea/semi2-list.xlsx
+++ b/ea/semi2-list.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk30\dga\repo\report\ea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8803A38-9E83-469C-8670-A888C83AEC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76586D5-F6A5-4735-87A9-AE4EE81BE326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2025" windowWidth="19680" windowHeight="13515" activeTab="2" xr2:uid="{C602A190-6EC8-4844-A2D2-C6D6823BCD63}"/>
+    <workbookView xWindow="1410" yWindow="60" windowWidth="25410" windowHeight="15495" activeTab="5" xr2:uid="{C602A190-6EC8-4844-A2D2-C6D6823BCD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1 (4)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5626" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6371" uniqueCount="1443">
   <si>
     <t>odihaterx@gmail.com</t>
   </si>
@@ -3318,6 +3320,1056 @@
   </si>
   <si>
     <t>ส่วนแผนงานและงบประมาณ สอป.สำนักงานอนุรักษ์สัตว์ป่า</t>
+  </si>
+  <si>
+    <t>pattaraporn.t@md.go.th</t>
+  </si>
+  <si>
+    <t>นางสาวภัทราพร เตโจ</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_094459_533.txt</t>
+  </si>
+  <si>
+    <t>ladda.ha@rd.go.th</t>
+  </si>
+  <si>
+    <t>ลัดดา หาน้อย</t>
+  </si>
+  <si>
+    <t>กองมาตรฐานการสอบบัญชีภาษีอากร กรมสรรพากร</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_093409_334.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_092052_207.txt</t>
+  </si>
+  <si>
+    <t>prasertsarn@fda.moph.go.th</t>
+  </si>
+  <si>
+    <t>นายธนกฤษ ประเสริฐสาร</t>
+  </si>
+  <si>
+    <t>สำนักงานคณะกรรมการอาหารและยา</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_091350_707.txt</t>
+  </si>
+  <si>
+    <t>สำนักงานการปฏิรูปที่ดินเพื่อเกษตรกรรม (ส.ป.ก.)</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_085620_177.txt</t>
+  </si>
+  <si>
+    <t>nonboonyakul@gmail.com</t>
+  </si>
+  <si>
+    <t>จรินทิพย์</t>
+  </si>
+  <si>
+    <t>บันทึก</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_085032_523.txt</t>
+  </si>
+  <si>
+    <t>seedactdoa@gmail.com</t>
+  </si>
+  <si>
+    <t>นางทัศนีย์ ศรีโสภา</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_084403_914.txt</t>
+  </si>
+  <si>
+    <t>dna2231@gmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวนุดีนุช อรรคนันท์</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_080823_119.txt</t>
+  </si>
+  <si>
+    <t>warachai_w@dede.go.th</t>
+  </si>
+  <si>
+    <t>วริทธิรัญชน์ วรินทรปวเรศ</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_075542_277.txt</t>
+  </si>
+  <si>
+    <t>woralack.kpr@doa.in.th</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_075055_882.txt</t>
+  </si>
+  <si>
+    <t>nops.warrior@gmail.com</t>
+  </si>
+  <si>
+    <t>นายนพคุณ ศรีพลัง</t>
+  </si>
+  <si>
+    <t>กรมทรัพยากรธรณี</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_074401_320.txt</t>
+  </si>
+  <si>
+    <t>สรวงสวรรค์ มงคลรัตนวงศ์</t>
+  </si>
+  <si>
+    <t>บริษัท เรือนยูงทอง จำกัด</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_074106_492.txt</t>
+  </si>
+  <si>
+    <t>doungjai.krainuyachan@aia.com</t>
+  </si>
+  <si>
+    <t>Doungjai Krainuyachan</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_073256_449.txt</t>
+  </si>
+  <si>
+    <t>nattparada@gmail.com</t>
+  </si>
+  <si>
+    <t>Parada pongsri</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_072937_801.txt</t>
+  </si>
+  <si>
+    <t>pinyajurgensen@gmail.com</t>
+  </si>
+  <si>
+    <t>ภิญญา เยอร์เกนเซน</t>
+  </si>
+  <si>
+    <t>Insight International Co.</t>
+  </si>
+  <si>
+    <t>Ltd.</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_072754_296.txt</t>
+  </si>
+  <si>
+    <t>วิทย์ธนี อุปลา</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_072213_283.txt</t>
+  </si>
+  <si>
+    <t>montira_am@hotmail.com</t>
+  </si>
+  <si>
+    <t>มลทิรา</t>
+  </si>
+  <si>
+    <t>Esg</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_071631_285.txt</t>
+  </si>
+  <si>
+    <t>oatta36@gmail.com</t>
+  </si>
+  <si>
+    <t>อินทร์ประสิทธิ์ ฟูประทีปศิริ</t>
+  </si>
+  <si>
+    <t>ธรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_071459_323.txt</t>
+  </si>
+  <si>
+    <t>phanuphong_dome@live.com</t>
+  </si>
+  <si>
+    <t>นายภาณุพงศ์ แก้วบรรจง</t>
+  </si>
+  <si>
+    <t>สำนักเศรษฐกิจการป่าไม้ กรมป่าไม้</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_070208_450.txt</t>
+  </si>
+  <si>
+    <t>natorn@yahoo.com</t>
+  </si>
+  <si>
+    <t>ธนธร เทอดเกียรติ</t>
+  </si>
+  <si>
+    <t>รร นานาชาติฮาร์โรว์</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_065953_740.txt</t>
+  </si>
+  <si>
+    <t>thitinas.k@gmail.com</t>
+  </si>
+  <si>
+    <t>ฐิตินัส</t>
+  </si>
+  <si>
+    <t>MYGG</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_065802_745.txt</t>
+  </si>
+  <si>
+    <t>umphun31@gmail.com</t>
+  </si>
+  <si>
+    <t>อำพันธ์ พรายทอง</t>
+  </si>
+  <si>
+    <t>ทีมนัดหมายประเมินราคาหลักทรัพย์</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_065124_450.txt</t>
+  </si>
+  <si>
+    <t>pathumma.pong@gmail.com</t>
+  </si>
+  <si>
+    <t>ปทุมมา พงษ์ศรี</t>
+  </si>
+  <si>
+    <t>บริษัท ไอที ดาบส</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_064733_554.txt</t>
+  </si>
+  <si>
+    <t>เบญจวรรณ นาคนาโส</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_062944_786.txt</t>
+  </si>
+  <si>
+    <t>thanyarat_l@dede.go.th</t>
+  </si>
+  <si>
+    <t>ธัญรัตน์ ล้อศิริรัตน์</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_053624_364.txt</t>
+  </si>
+  <si>
+    <t>kirana_s@drkilaw.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กิรณา ศิริชาติปภากุล </t>
+  </si>
+  <si>
+    <t>Dherakupt International Law office</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_052059_332.txt</t>
+  </si>
+  <si>
+    <t>charl.v1985@gmail.com</t>
+  </si>
+  <si>
+    <t>ชาญศักดิ์ วงษ์จันทร</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_051845_182.txt</t>
+  </si>
+  <si>
+    <t>santichai.o@hotmail.com</t>
+  </si>
+  <si>
+    <t>นายสันติชัย อ่อนเลิศ</t>
+  </si>
+  <si>
+    <t>ศูนย์เทคโนโลยีสารสนเทศ กรมการขนส่งทางบก</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_045956_522.txt</t>
+  </si>
+  <si>
+    <t>kanokornth@moc.go.th</t>
+  </si>
+  <si>
+    <t>กนกอร</t>
+  </si>
+  <si>
+    <t>ไทยรัก</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_034228_302.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_034201_103.txt</t>
+  </si>
+  <si>
+    <t>ploiicha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชนิกานต์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แซ่ลิ้ม </t>
+  </si>
+  <si>
+    <t>subscribe-20230207_034133_599.txt</t>
+  </si>
+  <si>
+    <t>Chanikan</t>
+  </si>
+  <si>
+    <t>Seelim</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_034114_555.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_032254_787.txt</t>
+  </si>
+  <si>
+    <t>นางสาวกานดา ศากยะโรจน์</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_023759_387.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230207_022641_597.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_164035_438.txt</t>
+  </si>
+  <si>
+    <t>สุกรัญ ระงับพาล</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_163715_079.txt</t>
+  </si>
+  <si>
+    <t>naiyana_b@dede.go.th</t>
+  </si>
+  <si>
+    <t>นัยนา บุญนาค</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_084700_618.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_083704_823.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_082848_823.txt</t>
+  </si>
+  <si>
+    <t>kitty1234_4yam@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นางสาวมัสลิน สิงห์บุญญานุภาพ </t>
+  </si>
+  <si>
+    <t>กรมทรัพยากรน้ำ กลุ่มพัฒนาระบบบริหาร</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081946_929.txt</t>
+  </si>
+  <si>
+    <t>ningppjj@gmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวจารุวรรณ เพชรมั่น</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081915_624.txt</t>
+  </si>
+  <si>
+    <t>thanyalak792@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นางธัญลักษณ์ สิงหเรศร์ </t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081840_990.txt</t>
+  </si>
+  <si>
+    <t>patcharee.katai27@gmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวพัชรี มีเย็น</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081642_304.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081400_702.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081320_906.txt</t>
+  </si>
+  <si>
+    <t>นางสาวกมลา มัทธกุลพร</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081229_861.txt</t>
+  </si>
+  <si>
+    <t>adirektrakarn.w@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นางวรรณรัฐนา อดิเรกตระการ </t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081200_509.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_081102_672.txt</t>
+  </si>
+  <si>
+    <t>nat14.thong@gmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวธนัฏฐา หงษ์ทอง</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_080847_492.txt</t>
+  </si>
+  <si>
+    <t>atchawinb@moc.go.th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">นายอาชวิณ บุญชู </t>
+  </si>
+  <si>
+    <t>subscribe-20230206_080709_047.txt</t>
+  </si>
+  <si>
+    <t>pawenaya@hotmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวปวีณา ยะวงศา</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_080625_532.txt</t>
+  </si>
+  <si>
+    <t>นางวริษฐา ผาทอง</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_074547_035.txt</t>
+  </si>
+  <si>
+    <t>Janteesudjai@gmail.com</t>
+  </si>
+  <si>
+    <t>สุดใจ จันที</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_072941_641.txt</t>
+  </si>
+  <si>
+    <t>teerapongs@dbd.go.th</t>
+  </si>
+  <si>
+    <t>ธีรพงษ์ โสจรัญรัตนกุล</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_051032_293.txt</t>
+  </si>
+  <si>
+    <t>wanida.wasina@gmail.com9</t>
+  </si>
+  <si>
+    <t>นางวนิดา คู่โพธิ์</t>
+  </si>
+  <si>
+    <t>กองบริหารการค้าสินค้าทั่วไป</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_040205_016.txt</t>
+  </si>
+  <si>
+    <t>niloisme@gmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวนิโลบล มีศรี</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_032220_905.txt</t>
+  </si>
+  <si>
+    <t>rattan61@hotmail.com</t>
+  </si>
+  <si>
+    <t>นางสาวรัตนา สอาดนัก</t>
+  </si>
+  <si>
+    <t>subscribe-20230206_032059_115.txt</t>
+  </si>
+  <si>
+    <t>jenpob_dopa@live.com</t>
+  </si>
+  <si>
+    <t>นายเจนภพ ชะดาบู้</t>
+  </si>
+  <si>
+    <t>สำนักบริหารการทะเบียน กรมการปกครอง</t>
+  </si>
+  <si>
+    <t>subscribe-20230203_104037_117.txt</t>
+  </si>
+  <si>
+    <t>withee.p@nbtc.go.th</t>
+  </si>
+  <si>
+    <t>นายวิธีร์ พานิชวงศ์</t>
+  </si>
+  <si>
+    <t>subscribe-20230203_071922_736.txt</t>
+  </si>
+  <si>
+    <t>sanya.ko@rd.go.th</t>
+  </si>
+  <si>
+    <t>นายสัญญา คงศรีนวล</t>
+  </si>
+  <si>
+    <t>ส่วนอบรมและประชาสัมพันธ์ กองมาตรฐานการสอบบัญชีภาษีอากร กรมสรรพากร</t>
+  </si>
+  <si>
+    <t>subscribe-20230203_044332_411.txt</t>
+  </si>
+  <si>
+    <t>areeya.ph@rd.go.th</t>
+  </si>
+  <si>
+    <t>นางสาวอารียา โพธิ์เรือง</t>
+  </si>
+  <si>
+    <t>subscribe-20230203_034029_609.txt</t>
+  </si>
+  <si>
+    <t>pathomc@tgo.or.th</t>
+  </si>
+  <si>
+    <t>ปฐม ชัยพฤกษทล</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>subscribe-20230203_023143_473.txt</t>
+  </si>
+  <si>
+    <t>ศูนย์เทคโนโลยีสารสนเทศและการสื่อสาร กรมป่าไม้</t>
+  </si>
+  <si>
+    <t>subscribe-20230202_101820_729.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230202_075738_381.txt</t>
+  </si>
+  <si>
+    <t>choompol@digitalsiam.com</t>
+  </si>
+  <si>
+    <t>subscribe-20230202_060959_674.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230131_083725_374.txt</t>
+  </si>
+  <si>
+    <t>subscribe-20230131_083713_443.txt</t>
+  </si>
+  <si>
+    <t>kulpol56@gmail.com</t>
+  </si>
+  <si>
+    <t>กุลภา พลรัตน์</t>
+  </si>
+  <si>
+    <t>กองสวัสดิภาพสัตว์และสัตวแพทย์บริการ กรมปศุสัตว์</t>
+  </si>
+  <si>
+    <t>subscribe-20230131_073627_118.txt</t>
+  </si>
+  <si>
+    <t>dr.choompol.boonmee@gmail.com</t>
+  </si>
+  <si>
+    <t>subscribe-20230131_044243_809.txt</t>
+  </si>
+  <si>
+    <t>100560@customs.go.th</t>
+  </si>
+  <si>
+    <t>106197@customs.go.th</t>
+  </si>
+  <si>
+    <t>adisornjet@outlook.com</t>
+  </si>
+  <si>
+    <t>admpmb2560@gmail.com</t>
+  </si>
+  <si>
+    <t>aeh_010@yahoo.com</t>
+  </si>
+  <si>
+    <t>afvc@dld.go.th</t>
+  </si>
+  <si>
+    <t>akkarawat.jia@pea.co.th</t>
+  </si>
+  <si>
+    <t>alanbunsanong@gmail.com</t>
+  </si>
+  <si>
+    <t>ann.chanatya@gmail.com</t>
+  </si>
+  <si>
+    <t>archara_a@hotmail.com</t>
+  </si>
+  <si>
+    <t>aree.u@dol.go.th</t>
+  </si>
+  <si>
+    <t>asdg@labour.mail.go.th</t>
+  </si>
+  <si>
+    <t>au_ppt@hotmail.com</t>
+  </si>
+  <si>
+    <t>aunazaza2399@gmail.com</t>
+  </si>
+  <si>
+    <t>benjawan.ka@mwa.co.th</t>
+  </si>
+  <si>
+    <t>bfkanokon@gmail.com</t>
+  </si>
+  <si>
+    <t>bupha.to@rd.go.th</t>
+  </si>
+  <si>
+    <t>buranut@gmail.com</t>
+  </si>
+  <si>
+    <t>Chananeth.k@gmail.com</t>
+  </si>
+  <si>
+    <t>change.psdg@gmail.com</t>
+  </si>
+  <si>
+    <t>chantapat.r@mrta.co.th</t>
+  </si>
+  <si>
+    <t>chattamarit26@gmail.com</t>
+  </si>
+  <si>
+    <t>Chayapha Kullawong &lt;chayapha.kullawong@dga.or.th&gt;</t>
+  </si>
+  <si>
+    <t>chichaya@opec.go.th</t>
+  </si>
+  <si>
+    <t>dbdpsd@gmail.com</t>
+  </si>
+  <si>
+    <t>dftindustry3@gmail.com</t>
+  </si>
+  <si>
+    <t>div5.guard.mpb@royalthaipolice.go.th</t>
+  </si>
+  <si>
+    <t>dnpdeveloper@dnp.mail.go.th</t>
+  </si>
+  <si>
+    <t>drnum</t>
+  </si>
+  <si>
+    <t>duangdorm@gmail.com</t>
+  </si>
+  <si>
+    <t>duangjit_suv@hotmail.com</t>
+  </si>
+  <si>
+    <t>golf_ass_127@hotmail.com</t>
+  </si>
+  <si>
+    <t>haameow@gmail.com</t>
+  </si>
+  <si>
+    <t>iaub.imd@gmail.com</t>
+  </si>
+  <si>
+    <t>i-chada@hotmail.com</t>
+  </si>
+  <si>
+    <t>icl_girlgang@hotmail.com</t>
+  </si>
+  <si>
+    <t>ictrid19@gmail.com</t>
+  </si>
+  <si>
+    <t>individaul77@gmail.com</t>
+  </si>
+  <si>
+    <t>jaruaypron_pu@customs.go.th</t>
+  </si>
+  <si>
+    <t>jeabsarinee1973@gmail.com</t>
+  </si>
+  <si>
+    <t>jirapa.tupprom@gmail.com</t>
+  </si>
+  <si>
+    <t>jitthawadee.pe@rd.go.th</t>
+  </si>
+  <si>
+    <t>joke_pccnst@hotmail.com</t>
+  </si>
+  <si>
+    <t>Kakanang.j@nbtc.go.th</t>
+  </si>
+  <si>
+    <t>kampon_1412@hotmail.com</t>
+  </si>
+  <si>
+    <t>kesini_thueng@hotmail.com</t>
+  </si>
+  <si>
+    <t>kfc.3695@gmail.com</t>
+  </si>
+  <si>
+    <t>khankeaw_sunan@gmail.com</t>
+  </si>
+  <si>
+    <t>khanrung.ke@rd.go.th</t>
+  </si>
+  <si>
+    <t>kprimnipa@gmail.com</t>
+  </si>
+  <si>
+    <t>kwangwanich@gmail.com</t>
+  </si>
+  <si>
+    <t>legal4@dld.go.th</t>
+  </si>
+  <si>
+    <t>luechac@moc.go.th</t>
+  </si>
+  <si>
+    <t>mintra.me25@gmail.com</t>
+  </si>
+  <si>
+    <t>montree261@hotmail.com</t>
+  </si>
+  <si>
+    <t>naksung@hotmail.com</t>
+  </si>
+  <si>
+    <t>nalakkhana.l@alro.go.th</t>
+  </si>
+  <si>
+    <t>namthip.c@ipthailand.go.th</t>
+  </si>
+  <si>
+    <t>nanid888@outlook.co.th</t>
+  </si>
+  <si>
+    <t>nantawut.fareed@gmail.com</t>
+  </si>
+  <si>
+    <t>napachai@mrta.co.th</t>
+  </si>
+  <si>
+    <t>natakanasara@gmail.com</t>
+  </si>
+  <si>
+    <t>natbordi.m@opdc.go.th</t>
+  </si>
+  <si>
+    <t>nathawat.at@rd.go.th</t>
+  </si>
+  <si>
+    <t>nationalparks.sc@gmail.com</t>
+  </si>
+  <si>
+    <t>nattapat_suk@finearts.go.th</t>
+  </si>
+  <si>
+    <t>nattpt@mwa.co.th</t>
+  </si>
+  <si>
+    <t>neno159@yahoo.com</t>
+  </si>
+  <si>
+    <t>nicha@opdc.go.th</t>
+  </si>
+  <si>
+    <t>nichahappy66@gmail.com</t>
+  </si>
+  <si>
+    <t>noppakun@dmr.mail.go.th</t>
+  </si>
+  <si>
+    <t>np_ck15@yahoo.co.th</t>
+  </si>
+  <si>
+    <t>npm_dnp@hotmail.co.th</t>
+  </si>
+  <si>
+    <t>nsd.soth@gmail.com</t>
+  </si>
+  <si>
+    <t>nugoonbo@dla.go.th</t>
+  </si>
+  <si>
+    <t>nutchapat.691@gmail.com</t>
+  </si>
+  <si>
+    <t>one.angkarn1@gmail.com</t>
+  </si>
+  <si>
+    <t>opdc.dcp@gmail.com</t>
+  </si>
+  <si>
+    <t>pakaporn.sing@gmail.com</t>
+  </si>
+  <si>
+    <t>pakineep@ncb.co.th</t>
+  </si>
+  <si>
+    <t>pasara@mrta.co.th</t>
+  </si>
+  <si>
+    <t>peerapha@mrta.co.th</t>
+  </si>
+  <si>
+    <t>phanomrung2531@gmail.com</t>
+  </si>
+  <si>
+    <t>phanwipha.ka@rd.go.th</t>
+  </si>
+  <si>
+    <t>phatchara.pa@rd.go.th</t>
+  </si>
+  <si>
+    <t>phayol.lik@pea.co.th</t>
+  </si>
+  <si>
+    <t>phueng.phichaya.92@gmail.com</t>
+  </si>
+  <si>
+    <t>pichjira.ja@rd.go.th</t>
+  </si>
+  <si>
+    <t>pilaipornp@moc.go.th</t>
+  </si>
+  <si>
+    <t>pimsing2002@gmail.com</t>
+  </si>
+  <si>
+    <t>pimthawil.law@pea.co.th</t>
+  </si>
+  <si>
+    <t>pitchanunpam@gmail.com</t>
+  </si>
+  <si>
+    <t>plan@dol.go.th</t>
+  </si>
+  <si>
+    <t>pongsathon.th@gmail.com</t>
+  </si>
+  <si>
+    <t>PORNTEERA.GIFT@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>potatohot@hotmail.com</t>
+  </si>
+  <si>
+    <t>premmanat.n@nbtc.go.th</t>
+  </si>
+  <si>
+    <t>psdd2018@gmail.com</t>
+  </si>
+  <si>
+    <t>ptnpsw.working@gmail.com</t>
+  </si>
+  <si>
+    <t>rammy2007xx@gmail.com</t>
+  </si>
+  <si>
+    <t>rfi.rid@hotmail.com</t>
+  </si>
+  <si>
+    <t>rujapa@mrta.co.th</t>
+  </si>
+  <si>
+    <t>s.suwannaprong@gmail.com</t>
+  </si>
+  <si>
+    <t>saksit.s2@dol.go.th</t>
+  </si>
+  <si>
+    <t>saksorng1@gmail.com</t>
+  </si>
+  <si>
+    <t>saluta.suk@gmail.com</t>
+  </si>
+  <si>
+    <t>samranpolanuphong@gmail.com</t>
+  </si>
+  <si>
+    <t>saowalak@mrta.co.th</t>
+  </si>
+  <si>
+    <t>saowarosa@fpo.go.th</t>
+  </si>
+  <si>
+    <t>sasikarn.p@opdc.go.th</t>
+  </si>
+  <si>
+    <t>sawangpong@mrta.co.th</t>
+  </si>
+  <si>
+    <t>sc.chaipanya@gmail.com</t>
+  </si>
+  <si>
+    <t>seranee@doeb.go.th</t>
+  </si>
+  <si>
+    <t>settha2507@yahoo.co.th</t>
+  </si>
+  <si>
+    <t>setthapong.p@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sirion.a1963@gmail.com</t>
+  </si>
+  <si>
+    <t>somnuk2000@hotmail.com</t>
+  </si>
+  <si>
+    <t>sonsaad@hotmail.com</t>
+  </si>
+  <si>
+    <t>souawapakwu@gmail.com</t>
+  </si>
+  <si>
+    <t>srivarin.pong@gmail.com</t>
+  </si>
+  <si>
+    <t>sukandameevech@gmail.com</t>
+  </si>
+  <si>
+    <t>sukarun3@gmail.com</t>
+  </si>
+  <si>
+    <t>sunetboonmee@gmail.com</t>
+  </si>
+  <si>
+    <t>supanan.c@opdc.go.th</t>
+  </si>
+  <si>
+    <t>suriyan@mwa.co.th</t>
+  </si>
+  <si>
+    <t>tanarug.k@nbtc.go.th</t>
+  </si>
+  <si>
+    <t>tarnwimon@dga.or.th</t>
+  </si>
+  <si>
+    <t>tasanun.ju@rd.go.th</t>
+  </si>
+  <si>
+    <t>tawa.k@fte.kmutnb.ac.th</t>
+  </si>
+  <si>
+    <t>teeranuch.a@caat.or.th</t>
+  </si>
+  <si>
+    <t>Thachanon.Rak@pea.co.th</t>
+  </si>
+  <si>
+    <t>thewanontal@gmail.com</t>
+  </si>
+  <si>
+    <t>Thitirat.ma@tfac.or.th</t>
+  </si>
+  <si>
+    <t>thiyadapiwoon122@gmail.com</t>
+  </si>
+  <si>
+    <t>tok_wi_nai@hotmail.com</t>
+  </si>
+  <si>
+    <t>tuangrat.c@dol.go.th</t>
+  </si>
+  <si>
+    <t>tvrpt@outlook.co.th</t>
+  </si>
+  <si>
+    <t>ubolwan.s@dol.go.th</t>
+  </si>
+  <si>
+    <t>wanisara@opdc.go.th</t>
+  </si>
+  <si>
+    <t>warakorn_pumi@hotmail.com</t>
+  </si>
+  <si>
+    <t>warinthon.dopa@gmail.com</t>
+  </si>
+  <si>
+    <t>warittha.jajah@gmail.com</t>
+  </si>
+  <si>
+    <t>wasawatvanh@gmail.com</t>
+  </si>
+  <si>
+    <t>wasin.ck</t>
+  </si>
+  <si>
+    <t>watanyou.you@hotmail.com</t>
+  </si>
+  <si>
+    <t>wchotirosseranee@sandiego.edu</t>
+  </si>
+  <si>
+    <t>weera.r@caat.or.th</t>
+  </si>
+  <si>
+    <t>wildlifelawen@gmail.com</t>
+  </si>
+  <si>
+    <t>worawut.tun@pea.co.th</t>
+  </si>
+  <si>
+    <t>wpoungcharean@fisheries.go.th</t>
+  </si>
+  <si>
+    <t>yaamong@hotmail.com</t>
+  </si>
+  <si>
+    <t>yuthanan.s@nbtc.go.th</t>
+  </si>
+  <si>
+    <t>bsi_b@dpt.mail.go.th</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000C6BFE-6383-432E-987A-64B0A32DE439}">
   <dimension ref="A2:E358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A327" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9772,7 +10824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F793D257-DCFF-414D-B978-45E826EB038B}">
   <dimension ref="A2:F358"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
@@ -15864,7 +16916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEBE789-F97D-413F-B12A-DF4778631BA2}">
   <dimension ref="A2:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B252" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -21430,8 +22482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4F810D-31BD-4001-9904-18600618DAB2}">
   <dimension ref="A2:F278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26990,4 +28042,3556 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FF7A74-4961-4124-BB96-BB66882A9DE8}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>968</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>745</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>504</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>636</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C30" t="s">
+        <v>912</v>
+      </c>
+      <c r="D30" t="s">
+        <v>913</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>918</v>
+      </c>
+      <c r="C33" t="s">
+        <v>919</v>
+      </c>
+      <c r="D33" t="s">
+        <v>920</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>963</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>779</v>
+      </c>
+      <c r="C35" t="s">
+        <v>780</v>
+      </c>
+      <c r="D35" t="s">
+        <v>781</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C36" t="s">
+        <v>912</v>
+      </c>
+      <c r="D36" t="s">
+        <v>913</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>911</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D37" t="s">
+        <v>913</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>647</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D57" t="s">
+        <v>712</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D58" t="s">
+        <v>712</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D62" t="s">
+        <v>636</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>663</v>
+      </c>
+      <c r="C64" t="s">
+        <v>664</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D67" t="s">
+        <v>920</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D68" t="s">
+        <v>920</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C70" t="s">
+        <v>912</v>
+      </c>
+      <c r="D70" t="s">
+        <v>913</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FA0F2A-767F-4F62-BE54-2C513825DD23}">
+  <dimension ref="A1:A464"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection sqref="A1:A464"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A64">
+    <sortCondition ref="A1:A64"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>